--- a/DRE/cap11-Informes/IPT_ACRM_INF_#InventarioInformes_150514.xlsx
+++ b/DRE/cap11-Informes/IPT_ACRM_INF_#InventarioInformes_150514.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ignacio\Documents\GitHub\Ingeteam\DRE\cap11-Informes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Angel Campos\Desktop\Documents\GitHub\Ingeteam\DRE\cap11-Informes\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Nombre del Informe</t>
   </si>
@@ -111,6 +111,15 @@
   </si>
   <si>
     <t>Informe de Riesgos</t>
+  </si>
+  <si>
+    <t>Informe de Ofertas "Grandes"</t>
+  </si>
+  <si>
+    <t>JCJ</t>
+  </si>
+  <si>
+    <t>JCJ quiere que le llegue un informe para notificarle de ofertas superiores a 10^6 EUR</t>
   </si>
 </sst>
 </file>
@@ -485,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -594,7 +603,7 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>22</v>
       </c>
@@ -604,6 +613,20 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
     </row>
+    <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
